--- a/data/documentation/spreadsheets/done/apache@cassandra.xlsx
+++ b/data/documentation/spreadsheets/done/apache@cassandra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4F5DE-7A61-46D7-942B-B3B8C9BD9D55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D431560-6625-4D69-85DE-E13402488BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,9 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -477,7 +477,7 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -485,7 +485,7 @@
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -509,7 +509,7 @@
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -517,7 +517,7 @@
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
     </row>
